--- a/Excel/ships.xlsx
+++ b/Excel/ships.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\BD6\projet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D05924E-E109-4A0B-9E64-60940A74D9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{CB973B82-84B2-40ED-9B78-012871A5AA39}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11390"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="10">
   <si>
     <t>ship_id</t>
   </si>
@@ -52,19 +46,25 @@
     <t>passengers_capacity</t>
   </si>
   <si>
-    <t>Flûte</t>
+    <t>Chaloupe</t>
   </si>
   <si>
-    <t>Galion</t>
+    <t>Gallion</t>
   </si>
   <si>
-    <t>Gabare</t>
+    <t>Flute</t>
+  </si>
+  <si>
+    <t>Fregate</t>
+  </si>
+  <si>
+    <t>Corvette</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,23 +402,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44554A2E-A508-468B-AB13-159E6BB473B9}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,38 +435,2724 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11</v>
+      </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>12</v>
+      </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>300</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>300</v>
+      </c>
+      <c r="E4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>800</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>300</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>300</v>
+      </c>
+      <c r="E9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <v>5</v>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>800</v>
+      </c>
+      <c r="E10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>300</v>
+      </c>
+      <c r="E13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>300</v>
+      </c>
+      <c r="E14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>800</v>
+      </c>
+      <c r="E15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>300</v>
+      </c>
+      <c r="E18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>300</v>
+      </c>
+      <c r="E19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>800</v>
+      </c>
+      <c r="E20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>200</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>300</v>
+      </c>
+      <c r="E23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>300</v>
+      </c>
+      <c r="E24">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>800</v>
+      </c>
+      <c r="E25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>1000</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>200</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>300</v>
+      </c>
+      <c r="E28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>300</v>
+      </c>
+      <c r="E29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>800</v>
+      </c>
+      <c r="E30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>1000</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>200</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>300</v>
+      </c>
+      <c r="E33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>300</v>
+      </c>
+      <c r="E34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>800</v>
+      </c>
+      <c r="E35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>1000</v>
+      </c>
+      <c r="E36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>200</v>
+      </c>
+      <c r="E37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>300</v>
+      </c>
+      <c r="E38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>300</v>
+      </c>
+      <c r="E39">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>800</v>
+      </c>
+      <c r="E40">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>1000</v>
+      </c>
+      <c r="E41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>91</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>200</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>300</v>
+      </c>
+      <c r="E43">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>300</v>
+      </c>
+      <c r="E44">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>94</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>800</v>
+      </c>
+      <c r="E45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>1000</v>
+      </c>
+      <c r="E46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>101</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>200</v>
+      </c>
+      <c r="E47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>102</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>300</v>
+      </c>
+      <c r="E48">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>103</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>300</v>
+      </c>
+      <c r="E49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>104</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>800</v>
+      </c>
+      <c r="E50">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>105</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>1000</v>
+      </c>
+      <c r="E51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>111</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>200</v>
+      </c>
+      <c r="E52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>112</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>300</v>
+      </c>
+      <c r="E53">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>300</v>
+      </c>
+      <c r="E54">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>114</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>800</v>
+      </c>
+      <c r="E55">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>115</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>1000</v>
+      </c>
+      <c r="E56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>121</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>200</v>
+      </c>
+      <c r="E57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>122</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>300</v>
+      </c>
+      <c r="E58">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>123</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>300</v>
+      </c>
+      <c r="E59">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>124</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>800</v>
+      </c>
+      <c r="E60">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>1000</v>
+      </c>
+      <c r="E61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>131</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>200</v>
+      </c>
+      <c r="E62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>132</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>300</v>
+      </c>
+      <c r="E63">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>133</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>300</v>
+      </c>
+      <c r="E64">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>134</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>800</v>
+      </c>
+      <c r="E65">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>135</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>1000</v>
+      </c>
+      <c r="E66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>141</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>200</v>
+      </c>
+      <c r="E67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>142</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>300</v>
+      </c>
+      <c r="E68">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>143</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>300</v>
+      </c>
+      <c r="E69">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>144</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>800</v>
+      </c>
+      <c r="E70">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>145</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>1000</v>
+      </c>
+      <c r="E71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>151</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>200</v>
+      </c>
+      <c r="E72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>152</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>300</v>
+      </c>
+      <c r="E73">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>153</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>300</v>
+      </c>
+      <c r="E74">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>154</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>800</v>
+      </c>
+      <c r="E75">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>155</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <v>1000</v>
+      </c>
+      <c r="E76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>161</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>200</v>
+      </c>
+      <c r="E77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>162</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>300</v>
+      </c>
+      <c r="E78">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>163</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>300</v>
+      </c>
+      <c r="E79">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>164</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>800</v>
+      </c>
+      <c r="E80">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>165</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>1000</v>
+      </c>
+      <c r="E81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>171</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>200</v>
+      </c>
+      <c r="E82">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>172</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>300</v>
+      </c>
+      <c r="E83">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>173</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>300</v>
+      </c>
+      <c r="E84">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>174</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>800</v>
+      </c>
+      <c r="E85">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>175</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>1000</v>
+      </c>
+      <c r="E86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>181</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>200</v>
+      </c>
+      <c r="E87">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>182</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>300</v>
+      </c>
+      <c r="E88">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>183</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>300</v>
+      </c>
+      <c r="E89">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>184</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>800</v>
+      </c>
+      <c r="E90">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>185</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91">
+        <v>1000</v>
+      </c>
+      <c r="E91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>191</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>200</v>
+      </c>
+      <c r="E92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>192</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>300</v>
+      </c>
+      <c r="E93">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>193</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>300</v>
+      </c>
+      <c r="E94">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>194</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>800</v>
+      </c>
+      <c r="E95">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>195</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>1000</v>
+      </c>
+      <c r="E96">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>201</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>200</v>
+      </c>
+      <c r="E97">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>202</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>300</v>
+      </c>
+      <c r="E98">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>203</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>300</v>
+      </c>
+      <c r="E99">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>204</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>800</v>
+      </c>
+      <c r="E100">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>205</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
+      <c r="D101">
+        <v>1000</v>
+      </c>
+      <c r="E101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>211</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>200</v>
+      </c>
+      <c r="E102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>212</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>300</v>
+      </c>
+      <c r="E103">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>213</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>300</v>
+      </c>
+      <c r="E104">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>214</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>800</v>
+      </c>
+      <c r="E105">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>215</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106">
+        <v>5</v>
+      </c>
+      <c r="D106">
+        <v>1000</v>
+      </c>
+      <c r="E106">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>221</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>200</v>
+      </c>
+      <c r="E107">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>222</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>300</v>
+      </c>
+      <c r="E108">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>223</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>300</v>
+      </c>
+      <c r="E109">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>224</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>800</v>
+      </c>
+      <c r="E110">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>225</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111">
+        <v>5</v>
+      </c>
+      <c r="D111">
+        <v>1000</v>
+      </c>
+      <c r="E111">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>231</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>200</v>
+      </c>
+      <c r="E112">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>232</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>300</v>
+      </c>
+      <c r="E113">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>233</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>300</v>
+      </c>
+      <c r="E114">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>234</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>800</v>
+      </c>
+      <c r="E115">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>235</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
+      <c r="D116">
+        <v>1000</v>
+      </c>
+      <c r="E116">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>241</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>200</v>
+      </c>
+      <c r="E117">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>242</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>300</v>
+      </c>
+      <c r="E118">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>243</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>300</v>
+      </c>
+      <c r="E119">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>244</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>800</v>
+      </c>
+      <c r="E120">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>245</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121">
+        <v>5</v>
+      </c>
+      <c r="D121">
+        <v>1000</v>
+      </c>
+      <c r="E121">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>251</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>200</v>
+      </c>
+      <c r="E122">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>252</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>300</v>
+      </c>
+      <c r="E123">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>253</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>300</v>
+      </c>
+      <c r="E124">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>254</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+      <c r="D125">
+        <v>800</v>
+      </c>
+      <c r="E125">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>255</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126">
+        <v>5</v>
+      </c>
+      <c r="D126">
+        <v>1000</v>
+      </c>
+      <c r="E126">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>261</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>200</v>
+      </c>
+      <c r="E127">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>262</v>
+      </c>
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>300</v>
+      </c>
+      <c r="E128">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>263</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129">
+        <v>300</v>
+      </c>
+      <c r="E129">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>264</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+      <c r="D130">
+        <v>800</v>
+      </c>
+      <c r="E130">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>265</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+      <c r="D131">
+        <v>1000</v>
+      </c>
+      <c r="E131">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>271</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>200</v>
+      </c>
+      <c r="E132">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>272</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+      <c r="D133">
+        <v>300</v>
+      </c>
+      <c r="E133">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>273</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+      <c r="D134">
+        <v>300</v>
+      </c>
+      <c r="E134">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>274</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+      <c r="D135">
+        <v>800</v>
+      </c>
+      <c r="E135">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>275</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136">
+        <v>5</v>
+      </c>
+      <c r="D136">
+        <v>1000</v>
+      </c>
+      <c r="E136">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>281</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>200</v>
+      </c>
+      <c r="E137">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>282</v>
+      </c>
+      <c r="B138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>300</v>
+      </c>
+      <c r="E138">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>283</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139">
+        <v>300</v>
+      </c>
+      <c r="E139">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>284</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
+      </c>
+      <c r="D140">
+        <v>800</v>
+      </c>
+      <c r="E140">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>285</v>
+      </c>
+      <c r="B141" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141">
+        <v>5</v>
+      </c>
+      <c r="D141">
+        <v>1000</v>
+      </c>
+      <c r="E141">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>291</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>200</v>
+      </c>
+      <c r="E142">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>292</v>
+      </c>
+      <c r="B143" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <v>300</v>
+      </c>
+      <c r="E143">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>293</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+      <c r="D144">
+        <v>300</v>
+      </c>
+      <c r="E144">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>294</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145">
+        <v>4</v>
+      </c>
+      <c r="D145">
+        <v>800</v>
+      </c>
+      <c r="E145">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>295</v>
+      </c>
+      <c r="B146" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146">
+        <v>5</v>
+      </c>
+      <c r="D146">
+        <v>1000</v>
+      </c>
+      <c r="E146">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>301</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>200</v>
+      </c>
+      <c r="E147">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>302</v>
+      </c>
+      <c r="B148" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>300</v>
+      </c>
+      <c r="E148">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>303</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149">
+        <v>300</v>
+      </c>
+      <c r="E149">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>304</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150">
+        <v>4</v>
+      </c>
+      <c r="D150">
+        <v>800</v>
+      </c>
+      <c r="E150">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>305</v>
+      </c>
+      <c r="B151" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151">
+        <v>5</v>
+      </c>
+      <c r="D151">
+        <v>1000</v>
+      </c>
+      <c r="E151">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>311</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>200</v>
+      </c>
+      <c r="E152">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>312</v>
+      </c>
+      <c r="B153" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>300</v>
+      </c>
+      <c r="E153">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>313</v>
+      </c>
+      <c r="B154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+      <c r="D154">
+        <v>300</v>
+      </c>
+      <c r="E154">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>314</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155">
+        <v>4</v>
+      </c>
+      <c r="D155">
+        <v>800</v>
+      </c>
+      <c r="E155">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>315</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156">
+        <v>5</v>
+      </c>
+      <c r="D156">
+        <v>1000</v>
+      </c>
+      <c r="E156">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>321</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>200</v>
+      </c>
+      <c r="E157">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>322</v>
+      </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+      <c r="D158">
+        <v>300</v>
+      </c>
+      <c r="E158">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>323</v>
+      </c>
+      <c r="B159" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+      <c r="D159">
+        <v>300</v>
+      </c>
+      <c r="E159">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>324</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160">
+        <v>4</v>
+      </c>
+      <c r="D160">
+        <v>800</v>
+      </c>
+      <c r="E160">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>325</v>
+      </c>
+      <c r="B161" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161">
+        <v>5</v>
+      </c>
+      <c r="D161">
+        <v>1000</v>
+      </c>
+      <c r="E161">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
